--- a/Saved_file/EM002/2026_08/sap_data.xlsx
+++ b/Saved_file/EM002/2026_08/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-08-26</t>
+          <t>2026-08-15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST7271</t>
+          <t>CUST5053</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16919446</v>
+        <v>22850474</v>
       </c>
       <c r="E2" t="n">
-        <v>2992190</v>
+        <v>4307429</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-08-06</t>
+          <t>2026-08-17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST8540</t>
+          <t>CUST5845</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10649111</v>
+        <v>14484474</v>
       </c>
       <c r="E3" t="n">
-        <v>1972684</v>
+        <v>2335296</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-08-09</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST2686</t>
+          <t>CUST1160</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24103972</v>
+        <v>8946370</v>
       </c>
       <c r="E4" t="n">
-        <v>2895809</v>
+        <v>1533723</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-08-23</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST3544</t>
+          <t>CUST4706</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16176577</v>
+        <v>19652722</v>
       </c>
       <c r="E5" t="n">
-        <v>2331875</v>
+        <v>2672281</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST5694</t>
+          <t>CUST8643</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23413878</v>
+        <v>19657209</v>
       </c>
       <c r="E6" t="n">
-        <v>4385838</v>
+        <v>2806221</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-08-22</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST5558</t>
+          <t>CUST6216</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16201253</v>
+        <v>24444232</v>
       </c>
       <c r="E7" t="n">
-        <v>2673750</v>
+        <v>4725463</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST6395</t>
+          <t>CUST8451</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15550487</v>
+        <v>12597804</v>
       </c>
       <c r="E8" t="n">
-        <v>2585159</v>
+        <v>2129329</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST3887</t>
+          <t>CUST2160</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24005559</v>
+        <v>21649511</v>
       </c>
       <c r="E9" t="n">
-        <v>4579311</v>
+        <v>3835216</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST4470</t>
+          <t>CUST6494</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23448819</v>
+        <v>23210989</v>
       </c>
       <c r="E10" t="n">
-        <v>2389145</v>
+        <v>2485254</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST8860</t>
+          <t>CUST5933</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15650924</v>
+        <v>21249040</v>
       </c>
       <c r="E11" t="n">
-        <v>2519022</v>
+        <v>3309930</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-08-23</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST2345</t>
+          <t>CUST9057</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20278464</v>
+        <v>11087152</v>
       </c>
       <c r="E12" t="n">
-        <v>2958108</v>
+        <v>2216029</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST5090</t>
+          <t>CUST9678</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22399761</v>
+        <v>15193926</v>
       </c>
       <c r="E13" t="n">
-        <v>3140655</v>
+        <v>1878761</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST4419</t>
+          <t>CUST6554</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12044460</v>
+        <v>23710011</v>
       </c>
       <c r="E14" t="n">
-        <v>1873142</v>
+        <v>3847866</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-08-02</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST5558</t>
+          <t>CUST3360</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13072823</v>
+        <v>16223191</v>
       </c>
       <c r="E15" t="n">
-        <v>1317806</v>
+        <v>2799458</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST8322</t>
+          <t>CUST2160</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12012969</v>
+        <v>10957646</v>
       </c>
       <c r="E16" t="n">
-        <v>1516471</v>
+        <v>1572962</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-08-30</t>
+          <t>2026-08-25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST4414</t>
+          <t>CUST3705</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21757606</v>
+        <v>16899346</v>
       </c>
       <c r="E17" t="n">
-        <v>3068465</v>
+        <v>1975736</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST5543</t>
+          <t>CUST1992</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9856481</v>
+        <v>22535867</v>
       </c>
       <c r="E18" t="n">
-        <v>1334611</v>
+        <v>2694353</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST1057</t>
+          <t>CUST6660</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12716044</v>
+        <v>21460799</v>
       </c>
       <c r="E19" t="n">
-        <v>1575812</v>
+        <v>4100192</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1447,12 +1447,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST3355</t>
+          <t>CUST1547</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17924275</v>
+        <v>18399562</v>
       </c>
       <c r="E20" t="n">
-        <v>2285779</v>
+        <v>2429603</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST2975</t>
+          <t>CUST8451</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12358966</v>
+        <v>24821174</v>
       </c>
       <c r="E21" t="n">
-        <v>1770375</v>
+        <v>3230969</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-08-11</t>
+          <t>2026-08-15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST7414</t>
+          <t>CUST2461</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9493006</v>
+        <v>19895900</v>
       </c>
       <c r="E22" t="n">
-        <v>1620368</v>
+        <v>2152285</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST4351</t>
+          <t>CUST5874</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8062423</v>
+        <v>19541611</v>
       </c>
       <c r="E23" t="n">
-        <v>888988</v>
+        <v>2736935</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-08-15</t>
+          <t>2026-08-01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST9493</t>
+          <t>CUST8871</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17215383</v>
+        <v>20797320</v>
       </c>
       <c r="E24" t="n">
-        <v>2633964</v>
+        <v>2418447</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-08-05</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST6395</t>
+          <t>CUST7942</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22622718</v>
+        <v>21620077</v>
       </c>
       <c r="E25" t="n">
-        <v>4443476</v>
+        <v>3292405</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-08-21</t>
+          <t>2026-08-10</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST3544</t>
+          <t>CUST9837</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13100537</v>
+        <v>13042517</v>
       </c>
       <c r="E26" t="n">
-        <v>2223269</v>
+        <v>2279879</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-08-22</t>
+          <t>2026-08-20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST6277</t>
+          <t>CUST6660</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15506635</v>
+        <v>22430345</v>
       </c>
       <c r="E27" t="n">
-        <v>1874507</v>
+        <v>3268299</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1901,24 +1901,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST8540</t>
+          <t>CUST3705</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14799422</v>
+        <v>15627982</v>
       </c>
       <c r="E28" t="n">
-        <v>2283923</v>
+        <v>2742779</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-08-23</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST3407</t>
+          <t>CUST1992</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>16506651</v>
+        <v>23311832</v>
       </c>
       <c r="E29" t="n">
-        <v>2238885</v>
+        <v>3504079</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1987,12 +1987,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-08-16</t>
+          <t>2026-08-19</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST8722</t>
+          <t>CUST5763</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24907760</v>
+        <v>19117481</v>
       </c>
       <c r="E30" t="n">
-        <v>4884226</v>
+        <v>2072752</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-08-07</t>
+          <t>2026-08-02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST4122</t>
+          <t>CUST3761</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>14094705</v>
+        <v>8203828</v>
       </c>
       <c r="E31" t="n">
-        <v>2075217</v>
+        <v>1504333</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST8722</t>
+          <t>CUST1547</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15398017</v>
+        <v>23807730</v>
       </c>
       <c r="E32" t="n">
-        <v>1853681</v>
+        <v>3033079</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST5971</t>
+          <t>CUST3078</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9150373</v>
+        <v>23869774</v>
       </c>
       <c r="E33" t="n">
-        <v>1734839</v>
+        <v>3349692</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-08-16</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST5558</t>
+          <t>CUST5119</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20785641</v>
+        <v>11086406</v>
       </c>
       <c r="E34" t="n">
-        <v>2393465</v>
+        <v>1594235</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-04</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST2975</t>
+          <t>CUST9678</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9511396</v>
+        <v>11223863</v>
       </c>
       <c r="E35" t="n">
-        <v>1555444</v>
+        <v>1482097</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-06</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST5824</t>
+          <t>CUST4098</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>22816025</v>
+        <v>20996224</v>
       </c>
       <c r="E36" t="n">
-        <v>3854631</v>
+        <v>3300624</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-26</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST3407</t>
+          <t>CUST3155</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>21617337</v>
+        <v>19963520</v>
       </c>
       <c r="E37" t="n">
-        <v>3399116</v>
+        <v>3859008</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST4350</t>
+          <t>CUST9703</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>19611352</v>
+        <v>11264343</v>
       </c>
       <c r="E38" t="n">
-        <v>2433747</v>
+        <v>1379298</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST2686</t>
+          <t>CUST9309</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>17587994</v>
+        <v>14319880</v>
       </c>
       <c r="E39" t="n">
-        <v>2481105</v>
+        <v>1489128</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST1057</t>
+          <t>CUST8085</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13964037</v>
+        <v>18934004</v>
       </c>
       <c r="E40" t="n">
-        <v>2169163</v>
+        <v>3362847</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-08-28</t>
+          <t>2026-08-11</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST7122</t>
+          <t>CUST8871</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>23779172</v>
+        <v>18388516</v>
       </c>
       <c r="E41" t="n">
-        <v>4679120</v>
+        <v>2089636</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-08-29</t>
+          <t>2026-08-31</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST5971</t>
+          <t>CUST9309</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>20210463</v>
+        <v>20896258</v>
       </c>
       <c r="E42" t="n">
-        <v>2298151</v>
+        <v>2777675</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-08-01</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST2975</t>
+          <t>CUST9309</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>15798587</v>
+        <v>15427929</v>
       </c>
       <c r="E43" t="n">
-        <v>1914763</v>
+        <v>1613499</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2760,25 +2760,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-08-12</t>
+          <t>2026-08-17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST9493</t>
+          <t>CUST1992</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>22560353</v>
+        <v>8912009</v>
       </c>
       <c r="E44" t="n">
-        <v>2638562</v>
+        <v>1154448</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-08-30</t>
+          <t>2026-08-21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST5022</t>
+          <t>CUST3360</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11684299</v>
+        <v>19827843</v>
       </c>
       <c r="E45" t="n">
-        <v>1969285</v>
+        <v>3593435</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-08-24</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST9377</t>
+          <t>CUST9057</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>18847311</v>
+        <v>10991741</v>
       </c>
       <c r="E46" t="n">
-        <v>3653804</v>
+        <v>1998970</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-08-14</t>
+          <t>2026-08-30</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST4873</t>
+          <t>CUST6466</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>16328846</v>
+        <v>23457685</v>
       </c>
       <c r="E47" t="n">
-        <v>2279283</v>
+        <v>4539499</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2959,12 +2959,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-08-18</t>
+          <t>2026-08-17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST4122</t>
+          <t>CUST6216</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>15248783</v>
+        <v>8418136</v>
       </c>
       <c r="E48" t="n">
-        <v>2133828</v>
+        <v>925310</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-08-13</t>
+          <t>2026-08-14</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST2317</t>
+          <t>CUST3761</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>17701270</v>
+        <v>17633845</v>
       </c>
       <c r="E49" t="n">
-        <v>2231260</v>
+        <v>2552418</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-08-08</t>
+          <t>2026-08-28</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST8860</t>
+          <t>CUST8085</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>11596013</v>
+        <v>8909086</v>
       </c>
       <c r="E50" t="n">
-        <v>1722691</v>
+        <v>1164855</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-08-01</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST5824</t>
+          <t>CUST6494</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>18020024</v>
+        <v>23886191</v>
       </c>
       <c r="E51" t="n">
-        <v>3054599</v>
+        <v>3827349</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-08-25</t>
+          <t>2026-08-23</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST8860</t>
+          <t>CUST6216</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>16706126</v>
+        <v>20779986</v>
       </c>
       <c r="E52" t="n">
-        <v>1840408</v>
+        <v>3250567</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-08-21</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST8322</t>
+          <t>CUST1196</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>13265091</v>
+        <v>24321409</v>
       </c>
       <c r="E53" t="n">
-        <v>2082290</v>
+        <v>3852348</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-08-16</t>
+          <t>2026-08-07</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST5971</t>
+          <t>CUST6216</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>24894340</v>
+        <v>15925445</v>
       </c>
       <c r="E54" t="n">
-        <v>4710398</v>
+        <v>3138641</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-08-09</t>
+          <t>2026-08-03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST1057</t>
+          <t>CUST7778</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>21239537</v>
+        <v>23440693</v>
       </c>
       <c r="E55" t="n">
-        <v>3446549</v>
+        <v>3212054</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3391,12 +3391,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-08-03</t>
+          <t>2026-08-19</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST8722</t>
+          <t>CUST6494</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>18954690</v>
+        <v>15135138</v>
       </c>
       <c r="E56" t="n">
-        <v>2317675</v>
+        <v>1811631</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-08-20</t>
+          <t>2026-08-30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST2469</t>
+          <t>CUST6554</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>20594832</v>
+        <v>8520699</v>
       </c>
       <c r="E57" t="n">
-        <v>3372916</v>
+        <v>888869</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-08-04</t>
+          <t>2026-08-29</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST4470</t>
+          <t>CUST3705</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>18263811</v>
+        <v>11146300</v>
       </c>
       <c r="E58" t="n">
-        <v>2229739</v>
+        <v>1302664</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-08-19</t>
+          <t>2026-08-22</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST5131</t>
+          <t>CUST3761</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22961233</v>
+        <v>21392348</v>
       </c>
       <c r="E59" t="n">
-        <v>2333288</v>
+        <v>4227408</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-08-17</t>
+          <t>2026-08-18</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST5022</t>
+          <t>CUST9387</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>21901947</v>
+        <v>10050789</v>
       </c>
       <c r="E60" t="n">
-        <v>3882087</v>
+        <v>1877894</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3661,12 +3661,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-08-30</t>
+          <t>2026-08-08</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST3355</t>
+          <t>CUST9837</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8817063</v>
+        <v>13340157</v>
       </c>
       <c r="E61" t="n">
-        <v>941015</v>
+        <v>1672975</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3815,16 +3815,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.9</v>
+        <v>62.7</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2992017</v>
+        <v>2125034</v>
       </c>
       <c r="E4" t="n">
-        <v>860155</v>
+        <v>341305</v>
       </c>
     </row>
     <row r="5">
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>9350583</v>
+        <v>14685164</v>
       </c>
       <c r="E5" t="n">
-        <v>1285173</v>
+        <v>4227003</v>
       </c>
     </row>
     <row r="6">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76</v>
+        <v>62.3</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>4764019</v>
+        <v>7967092</v>
       </c>
       <c r="E6" t="n">
-        <v>1160740</v>
+        <v>1031315</v>
       </c>
     </row>
     <row r="7">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.7</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>7823133</v>
+        <v>7045078</v>
       </c>
       <c r="E7" t="n">
-        <v>1977173</v>
+        <v>1113037</v>
       </c>
     </row>
     <row r="8">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.3</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>6202662</v>
+        <v>6828176</v>
       </c>
       <c r="E8" t="n">
-        <v>1203578</v>
+        <v>1219465</v>
       </c>
     </row>
     <row r="9">
@@ -3910,16 +3910,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.8</v>
+        <v>66.3</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>3647996</v>
+        <v>8387025</v>
       </c>
       <c r="E9" t="n">
-        <v>498670</v>
+        <v>2185224</v>
       </c>
     </row>
     <row r="10">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>62.7</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2968266</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>453299</v>
       </c>
     </row>
     <row r="11">
@@ -3948,16 +3948,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5924300</v>
+        <v>7923349</v>
       </c>
       <c r="E11" t="n">
-        <v>1104527</v>
+        <v>1797920</v>
       </c>
     </row>
     <row r="12">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>9639553</v>
+        <v>13450225</v>
       </c>
       <c r="E12" t="n">
-        <v>1125405</v>
+        <v>2709380</v>
       </c>
     </row>
     <row r="13">
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.7</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>6901659</v>
+        <v>4221953</v>
       </c>
       <c r="E13" t="n">
-        <v>2047637</v>
+        <v>987626</v>
       </c>
     </row>
     <row r="14">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.40000000000001</v>
+        <v>62.8</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>8824659</v>
+        <v>6610994</v>
       </c>
       <c r="E14" t="n">
-        <v>1516313</v>
+        <v>1408214</v>
       </c>
     </row>
     <row r="15">
@@ -4024,16 +4024,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.8</v>
+        <v>62.6</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>11300067</v>
+        <v>8231627</v>
       </c>
       <c r="E15" t="n">
-        <v>1694213</v>
+        <v>1431272</v>
       </c>
     </row>
     <row r="16">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>56.8</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4158126</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>613523</v>
       </c>
     </row>
     <row r="17">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1855550</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>329243</v>
       </c>
     </row>
     <row r="18">
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.09999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>7542408</v>
+        <v>7409488</v>
       </c>
       <c r="E18" t="n">
-        <v>1336161</v>
+        <v>2216337</v>
       </c>
     </row>
     <row r="19">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.5</v>
+        <v>67.7</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>2972031</v>
+        <v>2810221</v>
       </c>
       <c r="E19" t="n">
-        <v>626865</v>
+        <v>733290</v>
       </c>
     </row>
     <row r="20">
@@ -4119,16 +4119,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.1</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>10437149</v>
+        <v>6384417</v>
       </c>
       <c r="E20" t="n">
-        <v>2754739</v>
+        <v>1059078</v>
       </c>
     </row>
     <row r="21">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>76.5</v>
+        <v>65.3</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>9646752</v>
+        <v>5944650</v>
       </c>
       <c r="E21" t="n">
-        <v>2193431</v>
+        <v>1117599</v>
       </c>
     </row>
     <row r="22">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>13944584</v>
+        <v>3153508</v>
       </c>
       <c r="E22" t="n">
-        <v>1766689</v>
+        <v>853306</v>
       </c>
     </row>
     <row r="23">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.2</v>
+        <v>67.3</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>6947287</v>
+        <v>2600257</v>
       </c>
       <c r="E25" t="n">
-        <v>867296</v>
+        <v>261831</v>
       </c>
     </row>
     <row r="26">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61.1</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>6718807</v>
+        <v>5475640</v>
       </c>
       <c r="E26" t="n">
-        <v>987659</v>
+        <v>1211243</v>
       </c>
     </row>
     <row r="27">
@@ -4252,16 +4252,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.09999999999999</v>
+        <v>61.8</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>12778317</v>
+        <v>6424756</v>
       </c>
       <c r="E27" t="n">
-        <v>1664508</v>
+        <v>1135385</v>
       </c>
     </row>
     <row r="28">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.3</v>
+        <v>76.8</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>10822099</v>
+        <v>13827956</v>
       </c>
       <c r="E28" t="n">
-        <v>1440824</v>
+        <v>2382681</v>
       </c>
     </row>
     <row r="29">
@@ -4290,16 +4290,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="C29" t="n">
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>15702971</v>
+        <v>7848945</v>
       </c>
       <c r="E29" t="n">
-        <v>1914998</v>
+        <v>1380375</v>
       </c>
     </row>
     <row r="30">
@@ -4347,16 +4347,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>73.7</v>
+        <v>62.2</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>11281110</v>
+        <v>8824344</v>
       </c>
       <c r="E32" t="n">
-        <v>2436241</v>
+        <v>2275823</v>
       </c>
     </row>
   </sheetData>
